--- a/data/projekat.xlsx
+++ b/data/projekat.xlsx
@@ -4,15 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="778" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Test Plan" sheetId="1" r:id="rId1"/>
     <sheet name="Registration" sheetId="3" r:id="rId2"/>
-    <sheet name="Login" sheetId="2" r:id="rId3"/>
-    <sheet name="MyAddress" sheetId="4" r:id="rId4"/>
-    <sheet name="MyWishlist" sheetId="9" r:id="rId5"/>
-    <sheet name="Add products to cart" sheetId="8" r:id="rId6"/>
+    <sheet name="Bug report 1" sheetId="11" r:id="rId3"/>
+    <sheet name="Login" sheetId="2" r:id="rId4"/>
+    <sheet name="MyAddress" sheetId="4" r:id="rId5"/>
+    <sheet name="Identity" sheetId="10" r:id="rId6"/>
+    <sheet name="MyWishlist" sheetId="9" r:id="rId7"/>
+    <sheet name="AddProductsToCart" sheetId="8" r:id="rId8"/>
+    <sheet name="Bug report 2" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="192">
   <si>
     <t>Section</t>
   </si>
@@ -38,9 +41,6 @@
     <t>Bug report</t>
   </si>
   <si>
-    <t>TC status</t>
-  </si>
-  <si>
     <t>Registration</t>
   </si>
   <si>
@@ -56,48 +56,21 @@
     <t>LogIn</t>
   </si>
   <si>
-    <t>Verify that user can login with valid credentials</t>
-  </si>
-  <si>
     <t>TS 1</t>
   </si>
   <si>
     <t>TS 2</t>
   </si>
   <si>
-    <t>Verify that user cannot login with empty  credentials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that user can logout </t>
-  </si>
-  <si>
     <t>My Address</t>
   </si>
   <si>
-    <t>Verify that you can update address</t>
-  </si>
-  <si>
-    <t>Verify that you can remove address</t>
-  </si>
-  <si>
     <t>My Wishlist</t>
   </si>
   <si>
     <t>Add products to cart</t>
   </si>
   <si>
-    <t>Verify that you can add one product to cart</t>
-  </si>
-  <si>
-    <t>Verify that you can add one product to cart three times</t>
-  </si>
-  <si>
-    <t>Verify that you can add three different products to cart</t>
-  </si>
-  <si>
-    <t>Verify that you can remove product from cart</t>
-  </si>
-  <si>
     <t>ID: 1</t>
   </si>
   <si>
@@ -149,15 +122,6 @@
     <t xml:space="preserve">Click on "Sign in" button </t>
   </si>
   <si>
-    <t>Enter an already registered email adress in email field</t>
-  </si>
-  <si>
-    <t>An error must apear that has a message that this email address has already been registered</t>
-  </si>
-  <si>
-    <t>Enter a valid password for the entered email adress</t>
-  </si>
-  <si>
     <t>randomrkoje123@gmail.com</t>
   </si>
   <si>
@@ -167,45 +131,21 @@
     <t>ID: 5</t>
   </si>
   <si>
-    <t>Enter an incorect email adress in email field</t>
-  </si>
-  <si>
-    <t>Verify that user cannot login with invalid email</t>
-  </si>
-  <si>
-    <t>Verify that user cannot login with invalid password</t>
-  </si>
-  <si>
     <t>ID: 6</t>
   </si>
   <si>
-    <t>Enter an corect email adress in email field</t>
-  </si>
-  <si>
-    <t>Enter a invalid password for the entered email adress</t>
-  </si>
-  <si>
     <t>ID: 7</t>
   </si>
   <si>
     <t>marko321</t>
   </si>
   <si>
-    <t>Enter an blank email adress in email field</t>
-  </si>
-  <si>
     <t>Enter a blank password in password field</t>
   </si>
   <si>
-    <t>An error must appear that tells us "An email address required."</t>
-  </si>
-  <si>
     <t>qa123@gmail.com</t>
   </si>
   <si>
-    <t>An error must appear that tells us "Authentication failed."</t>
-  </si>
-  <si>
     <t>ID: 8</t>
   </si>
   <si>
@@ -218,9 +158,6 @@
     <t>Verify that when clicking on "Sign in" opens registration page</t>
   </si>
   <si>
-    <t>Verify that you cannot update password if  you put different passwords in "New Password" field and "Confirmation" field</t>
-  </si>
-  <si>
     <t>ID: 11</t>
   </si>
   <si>
@@ -230,9 +167,6 @@
     <t>ID: 13</t>
   </si>
   <si>
-    <t>Click on the button "MY ADDRESSES"</t>
-  </si>
-  <si>
     <t>Click "Update" button</t>
   </si>
   <si>
@@ -251,12 +185,6 @@
     <t>ID: 16</t>
   </si>
   <si>
-    <t>Verify that you can add one product to wishlist</t>
-  </si>
-  <si>
-    <t>Verify that you can add multiple products to wishlist</t>
-  </si>
-  <si>
     <t>ID: 17</t>
   </si>
   <si>
@@ -275,18 +203,6 @@
     <t xml:space="preserve">Pre condition: User must have a profile with a registerd email </t>
   </si>
   <si>
-    <t>Enter an already registered email adress in email field on the left</t>
-  </si>
-  <si>
-    <t>Verify that you can get new password if you forget it</t>
-  </si>
-  <si>
-    <t>Click "Forgot your password?" text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter an already registered email adress in "Email Address" field </t>
-  </si>
-  <si>
     <t>Click "Retrieve Password" button</t>
   </si>
   <si>
@@ -305,9 +221,6 @@
     <t>Go to your registerd email inbox</t>
   </si>
   <si>
-    <t xml:space="preserve">You got a new message from the automationpractice site with a new password </t>
-  </si>
-  <si>
     <t>Pre condition: User must have a profile</t>
   </si>
   <si>
@@ -350,27 +263,12 @@
     <t xml:space="preserve"> ID: 10</t>
   </si>
   <si>
-    <t>ID:</t>
-  </si>
-  <si>
-    <t>Verify that user can login with invalid credentials</t>
-  </si>
-  <si>
-    <t>Enter invalid registered email adress in email field</t>
-  </si>
-  <si>
-    <t>Enter invalid password for the entered email adress</t>
-  </si>
-  <si>
     <t>jozinzbazin333@gmail.com</t>
   </si>
   <si>
     <t>asd432d</t>
   </si>
   <si>
-    <t>jerko</t>
-  </si>
-  <si>
     <t>Pre condition: User is logged in</t>
   </si>
   <si>
@@ -380,18 +278,12 @@
     <t>user logged in,email:</t>
   </si>
   <si>
-    <t>Your updated address is listed.</t>
-  </si>
-  <si>
     <t>bug 1</t>
   </si>
   <si>
     <t xml:space="preserve"> ID: 11</t>
   </si>
   <si>
-    <t>Verify that you can chose a different state</t>
-  </si>
-  <si>
     <t>Pre condition: User is logged in and has 2 addresses in there list</t>
   </si>
   <si>
@@ -401,27 +293,15 @@
     <t>Iowa</t>
   </si>
   <si>
-    <t>Your updated state is listed.</t>
-  </si>
-  <si>
     <t>Only one address is listed.</t>
   </si>
   <si>
     <t>Pre condition: User is logged in and has one address listed</t>
   </si>
   <si>
-    <t>- Click "Ok" button</t>
-  </si>
-  <si>
-    <t>Pop up window shows,and asks as if we are sure?</t>
-  </si>
-  <si>
     <t>TS 3</t>
   </si>
   <si>
-    <t>Verify that you can update a different state</t>
-  </si>
-  <si>
     <t>Click "Home" button</t>
   </si>
   <si>
@@ -431,26 +311,305 @@
     <t>Click "More" button</t>
   </si>
   <si>
-    <t>Popup window shows "Added to your wishlist"</t>
-  </si>
-  <si>
     <t>Click "Add to wishlist" hearth button</t>
   </si>
   <si>
     <t>Pre condition: User is logged in and has not put any product to there wishlist</t>
   </si>
   <si>
-    <t>Verify that you can delete wishlist</t>
-  </si>
-  <si>
     <t>The list with product shows in Wishlist.</t>
+  </si>
+  <si>
+    <t>On the browser click "Back" method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hover over first product </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hover over second product </t>
+  </si>
+  <si>
+    <t>Click "My Wishlists" button</t>
+  </si>
+  <si>
+    <t>Click "x" button under "Delete" text</t>
+  </si>
+  <si>
+    <t>Click "OK" button</t>
+  </si>
+  <si>
+    <t>Pre condition: User is logged in and has one list in wishlist</t>
+  </si>
+  <si>
+    <t>Wishlist is removed</t>
+  </si>
+  <si>
+    <t>Karadjordjeva 10</t>
+  </si>
+  <si>
+    <t>TS 5</t>
+  </si>
+  <si>
+    <t>Click "MY PERSONAL INFORMATION" button</t>
+  </si>
+  <si>
+    <t>Petar</t>
+  </si>
+  <si>
+    <t>Pavlovic</t>
+  </si>
+  <si>
+    <t>First name is updated</t>
+  </si>
+  <si>
+    <t>Last name is updated</t>
+  </si>
+  <si>
+    <t>Insert different last name in "Last name" field</t>
+  </si>
+  <si>
+    <t>Insert different first name in "First name" field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre condition: User is logged in </t>
+  </si>
+  <si>
+    <t>Click "Proceed to checkout" button</t>
+  </si>
+  <si>
+    <t>The list with 2 products shows in Wishlist.</t>
+  </si>
+  <si>
+    <t>ID: 19</t>
+  </si>
+  <si>
+    <t>ID: 20</t>
+  </si>
+  <si>
+    <t>Bug name:</t>
+  </si>
+  <si>
+    <t>Description:</t>
+  </si>
+  <si>
+    <t>Steps to reproduce:</t>
+  </si>
+  <si>
+    <t>Expected result:</t>
+  </si>
+  <si>
+    <t>Actual result:</t>
+  </si>
+  <si>
+    <t>User didn’t recive an email after they have clicked "Retrieve Password" button</t>
+  </si>
+  <si>
+    <t>Click "Forgot your password?" link-text</t>
+  </si>
+  <si>
+    <t>User got an email with a random password</t>
+  </si>
+  <si>
+    <t>Click "Add to cart" button</t>
+  </si>
+  <si>
+    <t>There is 1 product in cart</t>
+  </si>
+  <si>
+    <t>Click "+" button three times under "Quantity" text</t>
+  </si>
+  <si>
+    <t>ID: 21</t>
+  </si>
+  <si>
+    <t>Click garbage can button</t>
+  </si>
+  <si>
+    <t>There are 4 products in cart.</t>
+  </si>
+  <si>
+    <t>ID: 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insert quantity in quantity field </t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>Insert quantity in quantity field "-1"</t>
+  </si>
+  <si>
+    <t>User added "1" product to cart</t>
+  </si>
+  <si>
+    <t>User cant add "-1" product in cart</t>
+  </si>
+  <si>
+    <t>Error window shows with message that you cant add "-1" product to cart</t>
+  </si>
+  <si>
+    <t>ID: 23</t>
+  </si>
+  <si>
+    <t>bug 2</t>
+  </si>
+  <si>
+    <t>An error must appear that has a message that this email address has already been registered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User got a new message from the automationpractice site with a new password </t>
+  </si>
+  <si>
+    <t>Verify that user can log in with valid credentials</t>
+  </si>
+  <si>
+    <t>Verify that user cannot log in with invalid email</t>
+  </si>
+  <si>
+    <t>Verify that user cannot log in with invalid password</t>
+  </si>
+  <si>
+    <t>Verify that user cannot log in with empty  credentials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user can log out </t>
+  </si>
+  <si>
+    <t>Enter an valid password for the entered email address</t>
+  </si>
+  <si>
+    <t>Enter an invalid password for the entered email address</t>
+  </si>
+  <si>
+    <t>Click on "MY ADDRESSES" button</t>
+  </si>
+  <si>
+    <t>Pop up window shows,and asks a user if he is sure?</t>
+  </si>
+  <si>
+    <t>Click "Ok" button</t>
+  </si>
+  <si>
+    <t>Identity</t>
+  </si>
+  <si>
+    <t>Insert current password in "Current Password" field</t>
+  </si>
+  <si>
+    <t>Pop-up window show and asks a user "Do you really want to delete this wishlist? "</t>
+  </si>
+  <si>
+    <t>Pop-up window shows "Added to your wishlist"</t>
+  </si>
+  <si>
+    <t>The cart is empty.</t>
+  </si>
+  <si>
+    <t>Verify that user can update address</t>
+  </si>
+  <si>
+    <t>Verify that user can chose a different state</t>
+  </si>
+  <si>
+    <t>Verify that user can remove address</t>
+  </si>
+  <si>
+    <t>Verify that user can change first name</t>
+  </si>
+  <si>
+    <t>Verify that user can change last name</t>
+  </si>
+  <si>
+    <t>Verify that user can add one product to wishlist</t>
+  </si>
+  <si>
+    <t>Verify that user can remove one list from wishlist</t>
+  </si>
+  <si>
+    <t>Verify that user can add two products to wishlist</t>
+  </si>
+  <si>
+    <t>Verify that user can add one product to cart</t>
+  </si>
+  <si>
+    <t>Verify that user can add one product to cart four times</t>
+  </si>
+  <si>
+    <t>Verify that user can add one product to cart and then remove it</t>
+  </si>
+  <si>
+    <t>Go to users registerd email inbox</t>
+  </si>
+  <si>
+    <t>Verify that user can update a different state</t>
+  </si>
+  <si>
+    <t>Verify that user can update first name</t>
+  </si>
+  <si>
+    <t>Verify that user can update last name</t>
+  </si>
+  <si>
+    <t>Verify that user can't add "-1" product to cart</t>
+  </si>
+  <si>
+    <t>Verify that user can get an email for password if he forgets it</t>
+  </si>
+  <si>
+    <t>Verify that user cannot log in with invalid credentials</t>
+  </si>
+  <si>
+    <t>Enter an already registered email address in email field on the left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter an already registered email address in "Email Address" field </t>
+  </si>
+  <si>
+    <t>User didn’t recived any email</t>
+  </si>
+  <si>
+    <t>Enter an already registered email address in email field</t>
+  </si>
+  <si>
+    <t>Enter a valid password for the entered email address</t>
+  </si>
+  <si>
+    <t>Enter invalid registered email address in email field</t>
+  </si>
+  <si>
+    <t>Enter invalid password for the entered email address</t>
+  </si>
+  <si>
+    <t>An error must appear that tells the user "Authentication failed."</t>
+  </si>
+  <si>
+    <t>Enter an incorect email address in email field</t>
+  </si>
+  <si>
+    <t>Enter an corect email address in email field</t>
+  </si>
+  <si>
+    <t>Enter a blank email address in email field</t>
+  </si>
+  <si>
+    <t>An error must appear that tells the user "An email address required."</t>
+  </si>
+  <si>
+    <t>starwars123</t>
+  </si>
+  <si>
+    <t>Users updated address is listed.</t>
+  </si>
+  <si>
+    <t>Users updated state is listed.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,19 +654,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -523,7 +682,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -564,10 +723,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -849,16 +1018,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" customWidth="1"/>
     <col min="4" max="4" width="30.28515625" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="25.140625" customWidth="1"/>
@@ -869,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -880,249 +1049,308 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
+      <c r="D2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="9" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>119</v>
+        <v>175</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="9" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>130</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D14" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="7"/>
+        <v>160</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="21"/>
     </row>
     <row r="15" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" t="s">
-        <v>80</v>
+      <c r="C22" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1135,8 +1363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,24 +1378,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C2" s="10"/>
       <c r="E2" s="9"/>
@@ -1180,30 +1408,30 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="4"/>
     </row>
@@ -1214,42 +1442,42 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C10" s="6"/>
       <c r="E10" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1257,59 +1485,59 @@
     <row r="15" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="4" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C15" s="4"/>
       <c r="E15" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C17" s="6"/>
       <c r="E17" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>83</v>
+        <v>177</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1317,96 +1545,96 @@
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>86</v>
+        <v>178</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>84</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>91</v>
+        <v>143</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1420,10 +1648,105 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="2" max="2" width="50.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="19"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="19"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1431,30 +1754,30 @@
     <col min="1" max="1" width="23.140625" customWidth="1"/>
     <col min="2" max="2" width="56" customWidth="1"/>
     <col min="3" max="3" width="37.85546875" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="C2" s="10"/>
       <c r="E2" s="9"/>
@@ -1468,66 +1791,66 @@
     <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="4" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="C4" s="10"/>
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>41</v>
+        <v>180</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>43</v>
+        <v>181</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>189</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1535,10 +1858,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="E12" s="8"/>
     </row>
@@ -1547,61 +1870,61 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>110</v>
+        <v>182</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>111</v>
+        <v>183</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>59</v>
+        <v>184</v>
       </c>
       <c r="E20" s="8"/>
     </row>
-    <row r="22" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>48</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1611,76 +1934,76 @@
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="4" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="E24" s="8"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>47</v>
+        <v>185</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>189</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>59</v>
+        <v>184</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1690,76 +2013,76 @@
     <row r="34" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="4" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="E34" s="8"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>51</v>
+        <v>186</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="C39" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>59</v>
+        <v>184</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D41" s="6"/>
     </row>
-    <row r="42" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="E42" s="8"/>
     </row>
@@ -1770,71 +2093,71 @@
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
       <c r="B44" s="4" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" s="17"/>
+        <v>187</v>
+      </c>
+      <c r="C48" s="16"/>
       <c r="E48" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="17"/>
+        <v>37</v>
+      </c>
+      <c r="C49" s="16"/>
       <c r="E49" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D51" s="6"/>
     </row>
-    <row r="52" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1844,82 +2167,78 @@
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="4" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>41</v>
+        <v>180</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="C59" t="s">
-        <v>114</v>
+        <v>189</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>61</v>
+        <v>40</v>
+      </c>
+      <c r="D61" t="s">
+        <v>25</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
-      <c r="B62" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D62" t="s">
-        <v>35</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="B62" s="7"/>
+      <c r="E62" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1933,12 +2252,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A13" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1952,41 +2271,41 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>189</v>
       </c>
       <c r="D3" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="C6" s="10"/>
     </row>
@@ -1995,43 +2314,57 @@
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>68</v>
+        <v>151</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>69</v>
+        <v>46</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="13"/>
+        <v>47</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>190</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2039,79 +2372,103 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="D28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="7"/>
     </row>
@@ -2190,6 +2547,174 @@
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D91" s="6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" t="s">
+        <v>189</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" t="s">
+        <v>189</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2199,17 +2724,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="53.85546875" customWidth="1"/>
     <col min="3" max="3" width="38.85546875" customWidth="1"/>
     <col min="4" max="4" width="30.5703125" customWidth="1"/>
@@ -2218,41 +2743,41 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>189</v>
       </c>
       <c r="D3" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>75</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2260,117 +2785,274 @@
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>132</v>
+        <v>91</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>133</v>
+        <v>92</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>134</v>
+        <v>93</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>136</v>
+        <v>94</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>135</v>
+        <v>157</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>139</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="14"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="7"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="7"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>138</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D33" s="14"/>
+      <c r="B33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="14"/>
+      <c r="B34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="14"/>
+      <c r="B35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="14"/>
+      <c r="B36" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+      <c r="B37" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D38" s="6"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="7"/>
+      <c r="B38" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="6"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+      <c r="B41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="4"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="7"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
+      <c r="B43" s="7"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="6"/>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="14"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="14"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="14"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="14"/>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="14"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="9"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="14"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B60" s="14"/>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D62" s="6"/>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="14"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D63" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2380,40 +3062,408 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="57.85546875" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" customWidth="1"/>
     <col min="5" max="5" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>78</v>
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="9"/>
+      <c r="B45" s="7"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="4"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="16"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="54.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="19"/>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
